--- a/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_강현주.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_강현주.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t xml:space="preserve">날짜 </t>
   </si>
@@ -25,7 +25,7 @@
     <t xml:space="preserve">퇴실 </t>
   </si>
   <si>
-    <t>완료</t>
+    <t>결석</t>
   </si>
   <si>
     <t xml:space="preserve">제로초의 JS 초급 강좌 </t>
@@ -55,16 +55,58 @@
     <t xml:space="preserve">미션3 </t>
   </si>
   <si>
+    <t>날짜</t>
+  </si>
+  <si>
     <t xml:space="preserve">오늘 목표량 </t>
   </si>
   <si>
     <t>오늘 성과량</t>
   </si>
   <si>
-    <t>제로초 강의 1강 다 듣고 끝말잇기 구현해보기</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">[강의] </t>
+    </r>
+    <r>
+      <t>제로초 강의 1강 다 듣고 끝말잇기 구현해보기</t>
+    </r>
   </si>
   <si>
     <t>1강 90% 완료. 끝말잇기 구현은 못했다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">[강의] </t>
+    </r>
+    <r>
+      <t>제로초 강의 1강 다 듣고 끝말잇기 구현해보기</t>
+    </r>
+  </si>
+  <si>
+    <t>기술면접 문제가 따라가느라 목표량 완성 못하였다..</t>
+  </si>
+  <si>
+    <t>・</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">[책] </t>
+    </r>
+    <r>
+      <t>초보자를 위한 Java Script 200제 PART1 001~005</t>
+    </r>
+  </si>
+  <si>
+    <t>PART1 001~006 까지 완료</t>
   </si>
 </sst>
 </file>
@@ -74,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm월 dd일"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -84,14 +126,36 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+    </font>
     <font/>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -110,11 +174,32 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -359,53 +444,80 @@
       <c r="A2" s="2">
         <v>44013.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="3">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>44014.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="3">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>44015.0</v>
       </c>
+      <c r="B4" s="3">
+        <v>0.3715277777777778</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>44016.0</v>
       </c>
+      <c r="B5" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>44017.0</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>44018.0</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>44019.0</v>
       </c>
+      <c r="B8" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>44020.0</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -523,6 +635,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -541,10 +658,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -552,7 +669,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>0.9</v>
       </c>
     </row>
@@ -585,7 +702,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -622,25 +739,231 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.86"/>
-    <col customWidth="1" min="2" max="2" width="30.43"/>
+    <col customWidth="1" min="1" max="1" width="13.29"/>
+    <col customWidth="1" min="2" max="2" width="47.57"/>
+    <col customWidth="1" min="3" max="3" width="40.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
+      <c r="A2" s="7">
+        <v>44014.0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>44019.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>44021.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>44022.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>44023.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>44024.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>44025.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>44026.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>44027.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>44028.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>44029.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>44030.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>44031.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>44032.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>44033.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>44034.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>44035.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>44036.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>44037.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>44038.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>44039.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>44040.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>44041.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>44042.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>44043.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
